--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>周次</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,6 +565,31 @@
       </c>
       <c r="D9" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
